--- a/Japanes_type_exercise.xlsx
+++ b/Japanes_type_exercise.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="150">
   <si>
     <t>いつもお　になつております</t>
     <phoneticPr fontId="1"/>
@@ -512,6 +512,14 @@
   </si>
   <si>
     <t>オーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウトライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3522,10 +3530,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P14"/>
+  <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -3680,6 +3688,16 @@
         <v>147</v>
       </c>
     </row>
+    <row r="15" spans="2:16">
+      <c r="C15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/Japanes_type_exercise.xlsx
+++ b/Japanes_type_exercise.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A144D694-CA9E-4F60-83EA-2407985600B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="199">
   <si>
     <t>いつもお　になつております</t>
     <phoneticPr fontId="1"/>
@@ -522,22 +523,231 @@
     <t>アカウント</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ナンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカデミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクシデント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセサリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセシビリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターフェース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーチン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクテイブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フアイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アスタリスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アタッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アタッチメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アダプタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アッパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップグレード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップデート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドオン　ボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドオン　メモリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドバンスド　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドミニストレータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アトリビュート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ビュ　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>byu</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Page2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シエアリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウエア</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -546,7 +756,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -554,16 +764,34 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <scheme val="minor"/>
+      <name val="MS明朝"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="16"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
-      <scheme val="minor"/>
+      <name val="MS明朝"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -587,10 +815,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -871,14 +1100,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
   </cols>
@@ -944,14 +1173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AC25"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="56.875" bestFit="1" customWidth="1"/>
@@ -2262,14 +2491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AA33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="16" width="3.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.75" bestFit="1" customWidth="1"/>
@@ -3529,23 +3758,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" ht="25.5">
+      <c r="B2" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="P2" s="2" t="s">
         <v>119</v>
       </c>
@@ -3698,10 +3930,264 @@
         <v>149</v>
       </c>
     </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" ht="25.5">
+      <c r="C41" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" ht="25.5">
+      <c r="C42" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" ht="25.5">
+      <c r="C43" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" ht="25.5">
+      <c r="C44" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="25.5">
+      <c r="C45" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" ht="25.5">
+      <c r="C46" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" ht="25.5">
+      <c r="C47" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" ht="25.5">
+      <c r="C48" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="25.5">
+      <c r="C49" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="C50" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="C51" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="C52" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="25.5">
+      <c r="C53" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="2:4" ht="25.5">
+      <c r="C54" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="25.5">
+      <c r="C55" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="25.5">
+      <c r="C56" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="25.5">
+      <c r="C57" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="25.5">
+      <c r="C58" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="25.5">
+      <c r="C59" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="25.5">
+      <c r="B60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="25.5">
+      <c r="C61" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="C62" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="25.5">
+      <c r="C63" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="25.5">
+      <c r="C64" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="25.5">
+      <c r="C65" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" ht="25.5">
+      <c r="C66" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Japanes_type_exercise.xlsx
+++ b/Japanes_type_exercise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A144D694-CA9E-4F60-83EA-2407985600B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46AEF8C-A6CC-4EA7-B44C-8AE32B110BB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="239">
   <si>
     <t>いつもお　になつております</t>
     <phoneticPr fontId="1"/>
@@ -730,6 +730,166 @@
   </si>
   <si>
     <t>ソフトウエア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファ:fa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタフェース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプレッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプローチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アペンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アボート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルゴリズム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルファベット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセッサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アロケーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンカレッジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンダーライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンチ　ウイルス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンデリート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンパック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンバランスド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イーサネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イタリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イニシエート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント　カウンタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ　スキャナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ　センサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ　データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ　ファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ　プロセッシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イリーガル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インクジェット　プリンタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インクルード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イン　サービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インジケータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Page3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3759,17 +3919,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:P66"/>
+  <dimension ref="B2:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -4140,6 +4300,9 @@
       <c r="C58" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="D58" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="59" spans="2:4" ht="25.5">
       <c r="C59" s="3" t="s">
@@ -4174,14 +4337,215 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="3:3" ht="25.5">
+    <row r="65" spans="3:4" ht="25.5">
       <c r="C65" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="3:3" ht="25.5">
+    <row r="66" spans="3:4" ht="25.5">
       <c r="C66" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" ht="25.5">
+      <c r="C67" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" ht="25.5">
+      <c r="C68" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" ht="25.5">
+      <c r="C69" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" ht="25.5">
+      <c r="C70" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" ht="25.5">
+      <c r="C72" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" ht="25.5">
+      <c r="C74" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" ht="25.5">
+      <c r="C75" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" ht="25.5">
+      <c r="C76" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" ht="25.5">
+      <c r="C77" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" ht="25.5">
+      <c r="C78" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" ht="25.5">
+      <c r="C79" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" ht="25.5">
+      <c r="C80" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="25.5">
+      <c r="C81" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="25.5">
+      <c r="C82" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="25.5">
+      <c r="C83" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="C84" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="25.5">
+      <c r="C85" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="25.5">
+      <c r="C86" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="C87" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="C88" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="25.5">
+      <c r="B89" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="C90" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="25.5">
+      <c r="C91" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="C92" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="C93" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="25.5">
+      <c r="C94" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="25.5">
+      <c r="C95" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="C96" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="25.5">
+      <c r="C97" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="C98" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="25.5">
+      <c r="C99" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="25.5">
+      <c r="C100" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="25.5">
+      <c r="C101" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="C102" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="25.5">
+      <c r="C103" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="25.5">
+      <c r="C104" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
